--- a/data/raw/maine_raw_2023.xlsx
+++ b/data/raw/maine_raw_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/1828127039303/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/IMT/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{11D7AA93-BBAE-4042-9A77-8155590F6AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6283F83-7901-D144-954C-EFC42496889E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190A7479-CA85-0F4C-90A7-1F65D450779F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15900" yWindow="-27700" windowWidth="27660" windowHeight="16960" xr2:uid="{0DF22FC3-99DE-C24F-8FD3-5668E5A5219A}"/>
+    <workbookView xWindow="15900" yWindow="-21000" windowWidth="27660" windowHeight="16960" xr2:uid="{0DF22FC3-99DE-C24F-8FD3-5668E5A5219A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -268,6 +268,18 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -330,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -344,6 +356,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{997F080D-F637-6B40-9B02-5033C094FA2B}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -759,7 +773,7 @@
       <c r="N1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="9" t="s">
         <v>60</v>
       </c>
       <c r="P1" s="8" t="s">
@@ -809,8 +823,8 @@
       <c r="N2" s="2">
         <v>224</v>
       </c>
-      <c r="O2" s="2">
-        <v>7.6</v>
+      <c r="O2" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P2">
         <v>23.6</v>
@@ -859,8 +873,8 @@
       <c r="N3" s="2">
         <v>244</v>
       </c>
-      <c r="O3" s="2">
-        <v>3.2</v>
+      <c r="O3" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P3">
         <v>20.399999999999999</v>
@@ -909,8 +923,8 @@
       <c r="N4" s="2">
         <v>212</v>
       </c>
-      <c r="O4" s="2">
-        <v>2.9</v>
+      <c r="O4" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P4">
         <v>21.2</v>
@@ -959,8 +973,8 @@
       <c r="N5" s="2">
         <v>429</v>
       </c>
-      <c r="O5" s="2">
-        <v>9.9</v>
+      <c r="O5" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P5">
         <v>22.4</v>
@@ -1009,8 +1023,8 @@
       <c r="N6" s="2">
         <v>257</v>
       </c>
-      <c r="O6" s="2">
-        <v>3.4</v>
+      <c r="O6" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P6">
         <v>20.399999999999999</v>
@@ -1059,8 +1073,8 @@
       <c r="N7" s="2">
         <v>399</v>
       </c>
-      <c r="O7" s="2">
-        <v>3.6</v>
+      <c r="O7" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P7">
         <v>21.5</v>
@@ -1109,8 +1123,8 @@
       <c r="N8" s="2">
         <v>312</v>
       </c>
-      <c r="O8" s="2">
-        <v>3.6</v>
+      <c r="O8" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P8">
         <v>20.6</v>
@@ -1159,8 +1173,8 @@
       <c r="N9" s="2">
         <v>330</v>
       </c>
-      <c r="O9" s="2">
-        <v>2.5</v>
+      <c r="O9" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P9">
         <v>21.6</v>
@@ -1209,8 +1223,8 @@
       <c r="N10" s="2">
         <v>218</v>
       </c>
-      <c r="O10" s="2">
-        <v>5.3</v>
+      <c r="O10" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P10">
         <v>22</v>
@@ -1259,8 +1273,8 @@
       <c r="N11" s="2">
         <v>348</v>
       </c>
-      <c r="O11" s="2">
-        <v>24.1</v>
+      <c r="O11" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P11">
         <v>28.8</v>
@@ -1309,8 +1323,8 @@
       <c r="N12" s="2">
         <v>224</v>
       </c>
-      <c r="O12" s="2">
-        <v>3.2</v>
+      <c r="O12" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P12">
         <v>20.2</v>
@@ -1359,8 +1373,8 @@
       <c r="N13" s="2">
         <v>384</v>
       </c>
-      <c r="O13" s="2">
-        <v>3.9</v>
+      <c r="O13" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P13">
         <v>21.6</v>
@@ -1409,8 +1423,8 @@
       <c r="N14" s="2">
         <v>257</v>
       </c>
-      <c r="O14" s="2">
-        <v>3.6</v>
+      <c r="O14" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P14">
         <v>20.7</v>
@@ -1459,8 +1473,8 @@
       <c r="N15" s="2">
         <v>130</v>
       </c>
-      <c r="O15" s="2">
-        <v>2.8</v>
+      <c r="O15" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P15">
         <v>21.7</v>
@@ -1509,8 +1523,8 @@
       <c r="N16" s="2">
         <v>200</v>
       </c>
-      <c r="O16" s="2">
-        <v>3.7</v>
+      <c r="O16" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P16">
         <v>21</v>
@@ -1559,8 +1573,8 @@
       <c r="N17" s="2">
         <v>176</v>
       </c>
-      <c r="O17" s="2">
-        <v>2.8</v>
+      <c r="O17" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P17">
         <v>20.9</v>
@@ -1609,8 +1623,8 @@
       <c r="N18" s="2">
         <v>140</v>
       </c>
-      <c r="O18" s="2">
-        <v>4.2</v>
+      <c r="O18" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P18">
         <v>20.6</v>
@@ -1659,8 +1673,8 @@
       <c r="N19" s="2">
         <v>216</v>
       </c>
-      <c r="O19" s="2">
-        <v>2.8</v>
+      <c r="O19" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P19">
         <v>20.399999999999999</v>
@@ -1709,8 +1723,8 @@
       <c r="N20" s="2">
         <v>269</v>
       </c>
-      <c r="O20" s="2">
-        <v>3.1</v>
+      <c r="O20" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P20">
         <v>20.8</v>
@@ -1759,8 +1773,8 @@
       <c r="N21" s="2">
         <v>250</v>
       </c>
-      <c r="O21" s="2">
-        <v>3.6</v>
+      <c r="O21" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P21">
         <v>19.600000000000001</v>
@@ -1809,8 +1823,8 @@
       <c r="N22" s="2">
         <v>216</v>
       </c>
-      <c r="O22" s="2">
-        <v>2.2999999999999998</v>
+      <c r="O22" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P22">
         <v>21.2</v>
@@ -1859,8 +1873,8 @@
       <c r="N23" s="2">
         <v>419</v>
       </c>
-      <c r="O23" s="2">
-        <v>3</v>
+      <c r="O23" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P23">
         <v>21.3</v>
@@ -1909,8 +1923,8 @@
       <c r="N24" s="2">
         <v>358</v>
       </c>
-      <c r="O24" s="2">
-        <v>2.9</v>
+      <c r="O24" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P24">
         <v>19.5</v>
@@ -1959,8 +1973,8 @@
       <c r="N25" s="2">
         <v>332</v>
       </c>
-      <c r="O25" s="2">
-        <v>5.3</v>
+      <c r="O25" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P25">
         <v>23</v>
@@ -2009,8 +2023,8 @@
       <c r="N26" s="2">
         <v>198</v>
       </c>
-      <c r="O26" s="2">
-        <v>2.6</v>
+      <c r="O26" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P26">
         <v>21.9</v>
@@ -2059,8 +2073,8 @@
       <c r="N27" s="2">
         <v>291</v>
       </c>
-      <c r="O27" s="2">
-        <v>3.6</v>
+      <c r="O27" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P27">
         <v>21.8</v>
@@ -2109,8 +2123,8 @@
       <c r="N28" s="2">
         <v>227</v>
       </c>
-      <c r="O28" s="2">
-        <v>2.7</v>
+      <c r="O28" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P28">
         <v>21.6</v>
@@ -2159,8 +2173,8 @@
       <c r="N29" s="2">
         <v>437</v>
       </c>
-      <c r="O29" s="2">
-        <v>2.2000000000000002</v>
+      <c r="O29" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P29">
         <v>21.9</v>
@@ -2209,8 +2223,8 @@
       <c r="N30" s="2">
         <v>208</v>
       </c>
-      <c r="O30" s="2">
-        <v>1.8</v>
+      <c r="O30" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P30">
         <v>21.2</v>
@@ -2259,8 +2273,8 @@
       <c r="N31" s="2">
         <v>432</v>
       </c>
-      <c r="O31" s="2">
-        <v>4.0999999999999996</v>
+      <c r="O31" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P31">
         <v>22</v>
@@ -2309,8 +2323,8 @@
       <c r="N32" s="2">
         <v>350</v>
       </c>
-      <c r="O32" s="2">
-        <v>22.2</v>
+      <c r="O32" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P32">
         <v>27.2</v>
@@ -2359,8 +2373,8 @@
       <c r="N33" s="2">
         <v>532</v>
       </c>
-      <c r="O33" s="2">
-        <v>3.7</v>
+      <c r="O33" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P33">
         <v>22.3</v>
@@ -2409,8 +2423,8 @@
       <c r="N34" s="2">
         <v>293</v>
       </c>
-      <c r="O34" s="2">
-        <v>3</v>
+      <c r="O34" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P34">
         <v>21.4</v>
@@ -2459,8 +2473,8 @@
       <c r="N35" s="2">
         <v>138</v>
       </c>
-      <c r="O35" s="2">
-        <v>3</v>
+      <c r="O35" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P35">
         <v>22.6</v>
@@ -2509,8 +2523,8 @@
       <c r="N36" s="2">
         <v>264</v>
       </c>
-      <c r="O36" s="2">
-        <v>2.7</v>
+      <c r="O36" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P36">
         <v>21.2</v>
@@ -2559,8 +2573,8 @@
       <c r="N37" s="2">
         <v>180</v>
       </c>
-      <c r="O37" s="2">
-        <v>2.2000000000000002</v>
+      <c r="O37" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P37">
         <v>21.8</v>
